--- a/BackTest/2020-01-13 BackTest BTC.xlsx
+++ b/BackTest/2020-01-13 BackTest BTC.xlsx
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
@@ -14871,14 +14871,20 @@
         <v>9108983.333333334</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>9051000</v>
+      </c>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14906,14 +14912,20 @@
         <v>9107133.333333334</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>9030000</v>
+      </c>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +14960,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +14999,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15038,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15046,18 +15070,16 @@
         <v>9100016.666666666</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>9031000</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M419" t="n">
@@ -15087,14 +15109,12 @@
         <v>9098266.666666666</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>9027000</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -15128,14 +15148,12 @@
         <v>9096500</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>9027000</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -15175,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="n">
-        <v>9024000</v>
+        <v>9025000</v>
       </c>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
@@ -15216,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="n">
-        <v>9022000</v>
+        <v>9024000</v>
       </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
@@ -15251,14 +15269,12 @@
         <v>9091516.666666666</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>9033000</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -15298,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="n">
-        <v>9039000</v>
+        <v>9032000</v>
       </c>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
@@ -15333,14 +15349,12 @@
         <v>9088350</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>9048000</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -15503,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="n">
-        <v>9063000</v>
+        <v>9062000</v>
       </c>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
@@ -15544,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="n">
-        <v>9076000</v>
+        <v>9067000</v>
       </c>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
@@ -15579,14 +15593,12 @@
         <v>9081300</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>9081000</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -15620,14 +15632,12 @@
         <v>9080533.333333334</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>9081000</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -15661,14 +15671,12 @@
         <v>9079800</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>9087000</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -29043,16 +29051,18 @@
         <v>0</v>
       </c>
       <c r="I777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M777" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M777" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -29080,11 +29090,15 @@
         <v>0</v>
       </c>
       <c r="I778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29115,11 +29129,15 @@
         <v>0</v>
       </c>
       <c r="I779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29150,11 +29168,15 @@
         <v>0</v>
       </c>
       <c r="I780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29189,7 +29211,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29224,7 +29250,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29259,7 +29289,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29290,11 +29324,15 @@
         <v>0</v>
       </c>
       <c r="I784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29325,11 +29363,15 @@
         <v>0</v>
       </c>
       <c r="I785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29360,11 +29402,15 @@
         <v>0</v>
       </c>
       <c r="I786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -29395,11 +29441,15 @@
         <v>0</v>
       </c>
       <c r="I787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -29430,11 +29480,15 @@
         <v>0</v>
       </c>
       <c r="I788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +29519,15 @@
         <v>0</v>
       </c>
       <c r="I789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -29500,11 +29558,15 @@
         <v>0</v>
       </c>
       <c r="I790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -29539,7 +29601,11 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -29574,7 +29640,11 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -29609,7 +29679,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -29644,7 +29718,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -29679,7 +29757,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -29714,7 +29796,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -29749,7 +29835,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -29784,7 +29874,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -29819,7 +29913,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -29854,7 +29952,11 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -29889,7 +29991,11 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30030,11 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29959,7 +30069,11 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29994,7 +30108,11 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30029,7 +30147,11 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30064,7 +30186,11 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30099,7 +30225,11 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30134,7 +30264,11 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30169,7 +30303,11 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30204,7 +30342,11 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30239,7 +30381,11 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30274,7 +30420,11 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -30309,7 +30459,11 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -30344,7 +30498,11 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -30379,7 +30537,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -30414,7 +30576,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -30449,7 +30615,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -30484,7 +30654,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -30519,7 +30693,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -30554,7 +30732,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -30589,7 +30771,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -30624,7 +30810,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -30659,7 +30849,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -30694,7 +30888,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -30729,7 +30927,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -30764,7 +30966,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -30799,7 +31005,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -30834,7 +31044,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -30869,7 +31083,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -30904,7 +31122,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -30939,7 +31161,11 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -30974,7 +31200,11 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -31009,7 +31239,11 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -31044,7 +31278,11 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31317,11 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -31114,7 +31356,11 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -31149,7 +31395,11 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -31184,7 +31434,11 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -31219,7 +31473,11 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -31254,7 +31512,11 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -31289,7 +31551,11 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -31324,7 +31590,11 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -31359,7 +31629,11 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -31394,7 +31668,11 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -31429,7 +31707,11 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -31464,7 +31746,11 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -31499,7 +31785,11 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -31534,7 +31824,11 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -31569,7 +31863,11 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -31604,7 +31902,11 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -31639,7 +31941,11 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -31674,7 +31980,11 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -31709,7 +32019,11 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -31744,7 +32058,11 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -31779,7 +32097,11 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -31814,7 +32136,11 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -31849,7 +32175,11 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -31884,7 +32214,11 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -31919,7 +32253,11 @@
       </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -31954,7 +32292,11 @@
       </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -31989,7 +32331,11 @@
       </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -32024,7 +32370,11 @@
       </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -32059,7 +32409,11 @@
       </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -32094,7 +32448,11 @@
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -32129,7 +32487,11 @@
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -32164,7 +32526,11 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -32199,7 +32565,11 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -32234,7 +32604,11 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -32269,7 +32643,11 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -32304,7 +32682,11 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -32339,7 +32721,11 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -32374,7 +32760,11 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -32409,7 +32799,11 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -32444,7 +32838,11 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -32479,7 +32877,11 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -32514,7 +32916,11 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -32549,7 +32955,11 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -32584,7 +32994,11 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -32619,7 +33033,11 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr"/>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -32654,7 +33072,11 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr"/>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -32689,7 +33111,11 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr"/>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -32724,7 +33150,11 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr"/>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -32759,7 +33189,11 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -32794,7 +33228,11 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr"/>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -32829,7 +33267,11 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr"/>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -32864,7 +33306,11 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr"/>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -32899,7 +33345,11 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr"/>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -32934,7 +33384,11 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr"/>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -32969,7 +33423,11 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr"/>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -33004,7 +33462,11 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr"/>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -33039,7 +33501,11 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr"/>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -33074,7 +33540,11 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr"/>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -33109,7 +33579,11 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr"/>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -33144,7 +33618,11 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr"/>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -33179,7 +33657,11 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr"/>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -33214,7 +33696,11 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr"/>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -33249,7 +33735,11 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr"/>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -33284,7 +33774,11 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr"/>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -33319,7 +33813,11 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr"/>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -33354,7 +33852,11 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr"/>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +33891,11 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr"/>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -33424,7 +33930,11 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -33459,7 +33969,11 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -33494,7 +34008,11 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -33529,7 +34047,11 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -33564,7 +34086,11 @@
       </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr"/>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -33599,7 +34125,11 @@
       </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -33634,7 +34164,11 @@
       </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -33669,7 +34203,11 @@
       </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -33704,7 +34242,11 @@
       </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -33739,7 +34281,11 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -33774,7 +34320,11 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -33809,7 +34359,11 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr"/>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -33844,7 +34398,11 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr"/>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -33879,7 +34437,11 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr"/>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -33914,7 +34476,11 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr"/>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -33949,7 +34515,11 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr"/>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -33984,7 +34554,11 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr"/>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -34019,7 +34593,11 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr"/>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -34054,7 +34632,11 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -34089,7 +34671,11 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -34124,7 +34710,11 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -34159,7 +34749,11 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -34194,7 +34788,11 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr"/>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -34229,7 +34827,11 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr"/>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -34264,7 +34866,11 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -34299,7 +34905,11 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -34334,7 +34944,11 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -34369,7 +34983,11 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr"/>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -34404,7 +35022,11 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -34439,7 +35061,11 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr"/>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -34474,7 +35100,11 @@
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr"/>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -34509,7 +35139,11 @@
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
-      <c r="L933" t="inlineStr"/>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -34544,7 +35178,11 @@
       </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
-      <c r="L934" t="inlineStr"/>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -34579,7 +35217,11 @@
       </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
-      <c r="L935" t="inlineStr"/>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -34614,7 +35256,11 @@
       </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
-      <c r="L936" t="inlineStr"/>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -34649,7 +35295,11 @@
       </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
-      <c r="L937" t="inlineStr"/>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -34684,7 +35334,11 @@
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
-      <c r="L938" t="inlineStr"/>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -34719,7 +35373,11 @@
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
-      <c r="L939" t="inlineStr"/>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -34754,7 +35412,11 @@
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
-      <c r="L940" t="inlineStr"/>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -34789,7 +35451,11 @@
       </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
-      <c r="L941" t="inlineStr"/>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -34824,7 +35490,11 @@
       </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
-      <c r="L942" t="inlineStr"/>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -34859,7 +35529,11 @@
       </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr"/>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -34894,7 +35568,11 @@
       </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr"/>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -34929,7 +35607,11 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr"/>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -34964,7 +35646,11 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr"/>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -34999,7 +35685,11 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr"/>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -35034,7 +35724,11 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr"/>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -35069,7 +35763,11 @@
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr"/>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -35104,7 +35802,11 @@
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr"/>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -35139,7 +35841,11 @@
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr"/>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -35174,7 +35880,11 @@
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr"/>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -35209,7 +35919,11 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr"/>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -35244,7 +35958,11 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr"/>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -35279,7 +35997,11 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr"/>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -35314,7 +36036,11 @@
       </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr"/>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -35349,7 +36075,11 @@
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr"/>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -35384,7 +36114,11 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr"/>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -35419,7 +36153,11 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -35454,7 +36192,11 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -35489,7 +36231,11 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -35524,7 +36270,11 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -35559,7 +36309,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -35594,7 +36348,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35629,7 +36387,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35664,7 +36426,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -35699,7 +36465,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -35734,7 +36504,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -35769,7 +36543,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -35804,7 +36582,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -35839,7 +36621,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -35874,7 +36660,11 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -35909,7 +36699,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -35944,7 +36738,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -35979,7 +36777,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -36014,7 +36816,11 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -36049,7 +36855,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -36084,7 +36894,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -36119,7 +36933,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -36154,7 +36972,11 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -36189,7 +37011,11 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -36224,7 +37050,11 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -36259,7 +37089,11 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -36294,7 +37128,11 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -36329,7 +37167,11 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -36364,7 +37206,11 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -36399,7 +37245,11 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -36434,7 +37284,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -36469,7 +37323,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -36504,7 +37362,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -36539,7 +37401,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -36574,7 +37440,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -36609,7 +37479,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -36644,7 +37518,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -36679,7 +37557,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -36714,7 +37596,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -36749,7 +37635,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -36784,7 +37674,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -36819,7 +37713,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -36854,7 +37752,11 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -36889,7 +37791,11 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -36924,7 +37830,11 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -36959,7 +37869,11 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -36994,7 +37908,11 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -37029,7 +37947,11 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -37064,7 +37986,11 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -37099,7 +38025,11 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -37134,7 +38064,11 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -37169,7 +38103,11 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -37204,7 +38142,11 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -37239,7 +38181,11 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -37274,7 +38220,11 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -37309,7 +38259,11 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -37344,7 +38298,11 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -37379,7 +38337,11 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -37414,7 +38376,11 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -37449,7 +38415,11 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -37484,7 +38454,11 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -37519,7 +38493,11 @@
       </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
-      <c r="L1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -37554,7 +38532,11 @@
       </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -37589,7 +38571,11 @@
       </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -37624,7 +38610,11 @@
       </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -37659,7 +38649,11 @@
       </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -37694,7 +38688,11 @@
       </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -37729,7 +38727,11 @@
       </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -37764,7 +38766,11 @@
       </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -37799,7 +38805,11 @@
       </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -37834,7 +38844,11 @@
       </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -37869,7 +38883,11 @@
       </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -37904,7 +38922,11 @@
       </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -37939,7 +38961,11 @@
       </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -37974,7 +39000,11 @@
       </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -38009,7 +39039,11 @@
       </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -38044,7 +39078,11 @@
       </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -38079,7 +39117,11 @@
       </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -38114,7 +39156,11 @@
       </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -38149,7 +39195,11 @@
       </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -38184,7 +39234,11 @@
       </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -38219,7 +39273,11 @@
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -38254,7 +39312,11 @@
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -38289,7 +39351,11 @@
       </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -38324,7 +39390,11 @@
       </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -38359,7 +39429,11 @@
       </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -38394,7 +39468,11 @@
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -38429,7 +39507,11 @@
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -38464,7 +39546,11 @@
       </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -38499,7 +39585,11 @@
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -38534,7 +39624,11 @@
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -38569,7 +39663,11 @@
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -38604,7 +39702,11 @@
       </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -38639,7 +39741,11 @@
       </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -38674,7 +39780,11 @@
       </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -38709,7 +39819,11 @@
       </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -38744,7 +39858,11 @@
       </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -38779,7 +39897,11 @@
       </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -38814,7 +39936,11 @@
       </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -38849,7 +39975,11 @@
       </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -38884,7 +40014,11 @@
       </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -38919,7 +40053,11 @@
       </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -38954,7 +40092,11 @@
       </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -38989,7 +40131,11 @@
       </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -39024,7 +40170,11 @@
       </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -39059,7 +40209,11 @@
       </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -39094,7 +40248,11 @@
       </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -39129,7 +40287,11 @@
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -39164,7 +40326,11 @@
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -39199,7 +40365,11 @@
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -39234,7 +40404,11 @@
       </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -39269,7 +40443,11 @@
       </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -39304,7 +40482,11 @@
       </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -39339,7 +40521,11 @@
       </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -39374,7 +40560,11 @@
       </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -39409,7 +40599,11 @@
       </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -39444,7 +40638,11 @@
       </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -39479,7 +40677,11 @@
       </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -39514,7 +40716,11 @@
       </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -39549,7 +40755,11 @@
       </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -39584,7 +40794,11 @@
       </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -39619,7 +40833,11 @@
       </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -39654,7 +40872,11 @@
       </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -39689,7 +40911,11 @@
       </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -39724,7 +40950,11 @@
       </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -39759,7 +40989,11 @@
       </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -39794,7 +41028,11 @@
       </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -39829,7 +41067,11 @@
       </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -39864,7 +41106,11 @@
       </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -39899,7 +41145,11 @@
       </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -39934,7 +41184,11 @@
       </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -39969,7 +41223,11 @@
       </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -40004,7 +41262,11 @@
       </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -40039,7 +41301,11 @@
       </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -40074,7 +41340,11 @@
       </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -40109,7 +41379,11 @@
       </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -40144,7 +41418,11 @@
       </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>
@@ -40179,7 +41457,11 @@
       </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr"/>
-      <c r="L1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1095" t="n">
         <v>1</v>
       </c>
@@ -40214,7 +41496,11 @@
       </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr"/>
-      <c r="L1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1096" t="n">
         <v>1</v>
       </c>
@@ -40249,7 +41535,11 @@
       </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr"/>
-      <c r="L1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1097" t="n">
         <v>1</v>
       </c>
@@ -40284,7 +41574,11 @@
       </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr"/>
-      <c r="L1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1098" t="n">
         <v>1</v>
       </c>
@@ -40319,7 +41613,11 @@
       </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr"/>
-      <c r="L1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1099" t="n">
         <v>1</v>
       </c>
@@ -40354,7 +41652,11 @@
       </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr"/>
-      <c r="L1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1100" t="n">
         <v>1</v>
       </c>
@@ -40389,7 +41691,11 @@
       </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr"/>
-      <c r="L1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1101" t="n">
         <v>1</v>
       </c>
@@ -40424,7 +41730,11 @@
       </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr"/>
-      <c r="L1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1102" t="n">
         <v>1</v>
       </c>
@@ -40459,7 +41769,11 @@
       </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr"/>
-      <c r="L1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1103" t="n">
         <v>1</v>
       </c>
@@ -40494,7 +41808,11 @@
       </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr"/>
-      <c r="L1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1104" t="n">
         <v>1</v>
       </c>
@@ -40529,7 +41847,11 @@
       </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr"/>
-      <c r="L1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1105" t="n">
         <v>1</v>
       </c>
@@ -40564,7 +41886,11 @@
       </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -40599,7 +41925,11 @@
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1107" t="n">
         <v>1</v>
       </c>
@@ -40634,7 +41964,11 @@
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
-      <c r="L1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1108" t="n">
         <v>1</v>
       </c>
@@ -40669,7 +42003,11 @@
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
-      <c r="L1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1109" t="n">
         <v>1</v>
       </c>
@@ -40704,7 +42042,11 @@
       </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1110" t="n">
         <v>1</v>
       </c>
@@ -40739,7 +42081,11 @@
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
-      <c r="L1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1111" t="n">
         <v>1</v>
       </c>
@@ -40774,7 +42120,11 @@
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
-      <c r="L1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1112" t="n">
         <v>1</v>
       </c>
@@ -40809,7 +42159,11 @@
       </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr"/>
-      <c r="L1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1113" t="n">
         <v>1</v>
       </c>
@@ -40844,7 +42198,11 @@
       </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr"/>
-      <c r="L1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1114" t="n">
         <v>1</v>
       </c>
@@ -40879,7 +42237,11 @@
       </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr"/>
-      <c r="L1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1115" t="n">
         <v>1</v>
       </c>
@@ -40914,7 +42276,11 @@
       </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr"/>
-      <c r="L1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1116" t="n">
         <v>1</v>
       </c>
@@ -40949,7 +42315,11 @@
       </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr"/>
-      <c r="L1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1117" t="n">
         <v>1</v>
       </c>
@@ -40984,7 +42354,11 @@
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
-      <c r="L1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1118" t="n">
         <v>1</v>
       </c>
@@ -41019,7 +42393,11 @@
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
-      <c r="L1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1119" t="n">
         <v>1</v>
       </c>
@@ -41054,7 +42432,11 @@
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
-      <c r="L1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1120" t="n">
         <v>1</v>
       </c>
@@ -41089,7 +42471,11 @@
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
-      <c r="L1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1121" t="n">
         <v>1</v>
       </c>
@@ -41124,7 +42510,11 @@
       </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr"/>
-      <c r="L1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1122" t="n">
         <v>1</v>
       </c>
@@ -41159,7 +42549,11 @@
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
-      <c r="L1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1123" t="n">
         <v>1</v>
       </c>
@@ -41194,7 +42588,11 @@
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>
-      <c r="L1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1124" t="n">
         <v>1</v>
       </c>
@@ -41229,7 +42627,11 @@
       </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr"/>
-      <c r="L1125" t="inlineStr"/>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1125" t="n">
         <v>1</v>
       </c>
@@ -41264,7 +42666,11 @@
       </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr"/>
-      <c r="L1126" t="inlineStr"/>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1126" t="n">
         <v>1</v>
       </c>
@@ -41299,7 +42705,11 @@
       </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr"/>
-      <c r="L1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1127" t="n">
         <v>1</v>
       </c>
@@ -41334,7 +42744,11 @@
       </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr"/>
-      <c r="L1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1128" t="n">
         <v>1</v>
       </c>
@@ -41369,7 +42783,11 @@
       </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr"/>
-      <c r="L1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1129" t="n">
         <v>1</v>
       </c>
@@ -41404,7 +42822,11 @@
       </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr"/>
-      <c r="L1130" t="inlineStr"/>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1130" t="n">
         <v>1</v>
       </c>
@@ -41439,7 +42861,11 @@
       </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr"/>
-      <c r="L1131" t="inlineStr"/>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1131" t="n">
         <v>1</v>
       </c>
@@ -41474,7 +42900,11 @@
       </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr"/>
-      <c r="L1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1132" t="n">
         <v>1</v>
       </c>
@@ -41509,7 +42939,11 @@
       </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr"/>
-      <c r="L1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1133" t="n">
         <v>1</v>
       </c>
@@ -41544,7 +42978,11 @@
       </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr"/>
-      <c r="L1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1134" t="n">
         <v>1</v>
       </c>
@@ -41579,7 +43017,11 @@
       </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr"/>
-      <c r="L1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1135" t="n">
         <v>1</v>
       </c>
@@ -41614,7 +43056,11 @@
       </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
-      <c r="L1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1136" t="n">
         <v>1</v>
       </c>
@@ -41649,7 +43095,11 @@
       </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr"/>
-      <c r="L1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1137" t="n">
         <v>1</v>
       </c>
@@ -41684,7 +43134,11 @@
       </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr"/>
-      <c r="L1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1138" t="n">
         <v>1</v>
       </c>
@@ -41719,7 +43173,11 @@
       </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
-      <c r="L1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1139" t="n">
         <v>1</v>
       </c>
@@ -41754,7 +43212,11 @@
       </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr"/>
-      <c r="L1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1140" t="n">
         <v>1</v>
       </c>
@@ -41789,7 +43251,11 @@
       </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr"/>
-      <c r="L1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1141" t="n">
         <v>1</v>
       </c>
@@ -41824,7 +43290,11 @@
       </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr"/>
-      <c r="L1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1142" t="n">
         <v>1</v>
       </c>
@@ -41859,7 +43329,11 @@
       </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr"/>
-      <c r="L1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1143" t="n">
         <v>1</v>
       </c>
@@ -41894,7 +43368,11 @@
       </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr"/>
-      <c r="L1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1144" t="n">
         <v>1</v>
       </c>
@@ -41929,7 +43407,11 @@
       </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr"/>
-      <c r="L1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1145" t="n">
         <v>1</v>
       </c>
@@ -41964,7 +43446,11 @@
       </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr"/>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1146" t="n">
         <v>1</v>
       </c>
@@ -41999,7 +43485,11 @@
       </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
-      <c r="L1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1147" t="n">
         <v>1</v>
       </c>
@@ -42034,7 +43524,11 @@
       </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr"/>
-      <c r="L1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1148" t="n">
         <v>1</v>
       </c>
@@ -42069,7 +43563,11 @@
       </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr"/>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1149" t="n">
         <v>1</v>
       </c>
@@ -42104,7 +43602,11 @@
       </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr"/>
-      <c r="L1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1150" t="n">
         <v>1</v>
       </c>
@@ -42139,7 +43641,11 @@
       </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr"/>
-      <c r="L1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1151" t="n">
         <v>1</v>
       </c>
@@ -42174,7 +43680,11 @@
       </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr"/>
-      <c r="L1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1152" t="n">
         <v>1</v>
       </c>
@@ -42209,7 +43719,11 @@
       </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr"/>
-      <c r="L1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1153" t="n">
         <v>1</v>
       </c>
@@ -42244,7 +43758,11 @@
       </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr"/>
-      <c r="L1154" t="inlineStr"/>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1154" t="n">
         <v>1</v>
       </c>
@@ -42279,7 +43797,11 @@
       </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr"/>
-      <c r="L1155" t="inlineStr"/>
+      <c r="L1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1155" t="n">
         <v>1</v>
       </c>
@@ -42314,7 +43836,11 @@
       </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr"/>
-      <c r="L1156" t="inlineStr"/>
+      <c r="L1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1156" t="n">
         <v>1</v>
       </c>
@@ -42349,7 +43875,11 @@
       </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr"/>
-      <c r="L1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1157" t="n">
         <v>1</v>
       </c>
@@ -42384,7 +43914,11 @@
       </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr"/>
-      <c r="L1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1158" t="n">
         <v>1</v>
       </c>
@@ -42419,7 +43953,11 @@
       </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -42454,7 +43992,11 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr"/>
+      <c r="L1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -42489,7 +44031,11 @@
       </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr"/>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -42524,7 +44070,11 @@
       </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -42559,7 +44109,11 @@
       </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -42594,7 +44148,11 @@
       </c>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -42629,7 +44187,11 @@
       </c>
       <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr"/>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -42664,7 +44226,11 @@
       </c>
       <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -42699,7 +44265,11 @@
       </c>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -42734,7 +44304,11 @@
       </c>
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -42769,7 +44343,11 @@
       </c>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -42804,7 +44382,11 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr"/>
+      <c r="L1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -42839,7 +44421,11 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -42874,7 +44460,11 @@
       </c>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr"/>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -42909,7 +44499,11 @@
       </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -42944,7 +44538,11 @@
       </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -42979,7 +44577,11 @@
       </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -43014,7 +44616,11 @@
       </c>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -43049,7 +44655,11 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr"/>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -43084,7 +44694,11 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -43119,7 +44733,11 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -43154,7 +44772,11 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr"/>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -43189,7 +44811,11 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -43224,7 +44850,11 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -43259,7 +44889,11 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -43294,7 +44928,11 @@
       </c>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr"/>
+      <c r="L1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -43329,7 +44967,11 @@
       </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -43364,7 +45006,11 @@
       </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -43399,7 +45045,11 @@
       </c>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -43434,7 +45084,11 @@
       </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1188" t="n">
         <v>1</v>
       </c>
@@ -43469,7 +45123,11 @@
       </c>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr"/>
-      <c r="L1189" t="inlineStr"/>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1189" t="n">
         <v>1</v>
       </c>
@@ -43504,7 +45162,11 @@
       </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr"/>
-      <c r="L1190" t="inlineStr"/>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1190" t="n">
         <v>1</v>
       </c>
@@ -43539,7 +45201,11 @@
       </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr"/>
-      <c r="L1191" t="inlineStr"/>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1191" t="n">
         <v>1</v>
       </c>
@@ -43574,7 +45240,11 @@
       </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr"/>
-      <c r="L1192" t="inlineStr"/>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1192" t="n">
         <v>1</v>
       </c>
@@ -43609,7 +45279,11 @@
       </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr"/>
-      <c r="L1193" t="inlineStr"/>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1193" t="n">
         <v>1</v>
       </c>
@@ -43644,7 +45318,11 @@
       </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr"/>
-      <c r="L1194" t="inlineStr"/>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1194" t="n">
         <v>1</v>
       </c>
@@ -43679,7 +45357,11 @@
       </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr"/>
-      <c r="L1195" t="inlineStr"/>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1195" t="n">
         <v>1</v>
       </c>
@@ -43714,7 +45396,11 @@
       </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr"/>
-      <c r="L1196" t="inlineStr"/>
+      <c r="L1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1196" t="n">
         <v>1</v>
       </c>
@@ -43749,7 +45435,11 @@
       </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr"/>
-      <c r="L1197" t="inlineStr"/>
+      <c r="L1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1197" t="n">
         <v>1</v>
       </c>
@@ -43784,7 +45474,11 @@
       </c>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr"/>
-      <c r="L1198" t="inlineStr"/>
+      <c r="L1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1198" t="n">
         <v>1</v>
       </c>
@@ -43819,7 +45513,11 @@
       </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr"/>
-      <c r="L1199" t="inlineStr"/>
+      <c r="L1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1199" t="n">
         <v>1</v>
       </c>
@@ -43854,7 +45552,11 @@
       </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr"/>
-      <c r="L1200" t="inlineStr"/>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1200" t="n">
         <v>1</v>
       </c>
@@ -43889,7 +45591,11 @@
       </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr"/>
-      <c r="L1201" t="inlineStr"/>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1201" t="n">
         <v>1</v>
       </c>
@@ -43924,7 +45630,11 @@
       </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr"/>
-      <c r="L1202" t="inlineStr"/>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1202" t="n">
         <v>1</v>
       </c>
@@ -43959,7 +45669,11 @@
       </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr"/>
-      <c r="L1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1203" t="n">
         <v>1</v>
       </c>
@@ -43994,7 +45708,11 @@
       </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr"/>
-      <c r="L1204" t="inlineStr"/>
+      <c r="L1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1204" t="n">
         <v>1</v>
       </c>
@@ -44029,7 +45747,11 @@
       </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
-      <c r="L1205" t="inlineStr"/>
+      <c r="L1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1205" t="n">
         <v>1</v>
       </c>
@@ -44064,7 +45786,11 @@
       </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr"/>
-      <c r="L1206" t="inlineStr"/>
+      <c r="L1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1206" t="n">
         <v>1</v>
       </c>
@@ -44099,7 +45825,11 @@
       </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr"/>
-      <c r="L1207" t="inlineStr"/>
+      <c r="L1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1207" t="n">
         <v>1</v>
       </c>
@@ -44134,7 +45864,11 @@
       </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr"/>
-      <c r="L1208" t="inlineStr"/>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1208" t="n">
         <v>1</v>
       </c>
@@ -44169,7 +45903,11 @@
       </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr"/>
-      <c r="L1209" t="inlineStr"/>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1209" t="n">
         <v>1</v>
       </c>
@@ -44204,7 +45942,11 @@
       </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr"/>
-      <c r="L1210" t="inlineStr"/>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1210" t="n">
         <v>1</v>
       </c>
@@ -44239,7 +45981,11 @@
       </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr"/>
-      <c r="L1211" t="inlineStr"/>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1211" t="n">
         <v>1</v>
       </c>
@@ -44274,7 +46020,11 @@
       </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr"/>
-      <c r="L1212" t="inlineStr"/>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1212" t="n">
         <v>1</v>
       </c>
@@ -44309,7 +46059,11 @@
       </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr"/>
-      <c r="L1213" t="inlineStr"/>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1213" t="n">
         <v>1</v>
       </c>
@@ -44344,7 +46098,11 @@
       </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr"/>
-      <c r="L1214" t="inlineStr"/>
+      <c r="L1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1214" t="n">
         <v>1</v>
       </c>
@@ -44379,7 +46137,11 @@
       </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr"/>
-      <c r="L1215" t="inlineStr"/>
+      <c r="L1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1215" t="n">
         <v>1</v>
       </c>
@@ -44414,7 +46176,11 @@
       </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr"/>
-      <c r="L1216" t="inlineStr"/>
+      <c r="L1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1216" t="n">
         <v>1</v>
       </c>
@@ -44449,7 +46215,11 @@
       </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr"/>
-      <c r="L1217" t="inlineStr"/>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1217" t="n">
         <v>1</v>
       </c>
@@ -44484,7 +46254,11 @@
       </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr"/>
-      <c r="L1218" t="inlineStr"/>
+      <c r="L1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1218" t="n">
         <v>1</v>
       </c>
@@ -44519,7 +46293,11 @@
       </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr"/>
-      <c r="L1219" t="inlineStr"/>
+      <c r="L1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1219" t="n">
         <v>1</v>
       </c>
@@ -44554,7 +46332,11 @@
       </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr"/>
-      <c r="L1220" t="inlineStr"/>
+      <c r="L1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1220" t="n">
         <v>1</v>
       </c>
@@ -44589,7 +46371,11 @@
       </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr"/>
-      <c r="L1221" t="inlineStr"/>
+      <c r="L1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1221" t="n">
         <v>1</v>
       </c>
@@ -44624,7 +46410,11 @@
       </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr"/>
-      <c r="L1222" t="inlineStr"/>
+      <c r="L1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1222" t="n">
         <v>1</v>
       </c>
@@ -44659,7 +46449,11 @@
       </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr"/>
-      <c r="L1223" t="inlineStr"/>
+      <c r="L1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1223" t="n">
         <v>1</v>
       </c>
@@ -44694,7 +46488,11 @@
       </c>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr"/>
-      <c r="L1224" t="inlineStr"/>
+      <c r="L1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1224" t="n">
         <v>1</v>
       </c>
@@ -44729,7 +46527,11 @@
       </c>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr"/>
-      <c r="L1225" t="inlineStr"/>
+      <c r="L1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1225" t="n">
         <v>1</v>
       </c>
@@ -44764,7 +46566,11 @@
       </c>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr"/>
-      <c r="L1226" t="inlineStr"/>
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1226" t="n">
         <v>1</v>
       </c>
@@ -44799,7 +46605,11 @@
       </c>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr"/>
-      <c r="L1227" t="inlineStr"/>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1227" t="n">
         <v>1</v>
       </c>
@@ -44834,7 +46644,11 @@
       </c>
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr"/>
-      <c r="L1228" t="inlineStr"/>
+      <c r="L1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1228" t="n">
         <v>1</v>
       </c>
@@ -44869,7 +46683,11 @@
       </c>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr"/>
-      <c r="L1229" t="inlineStr"/>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1229" t="n">
         <v>1</v>
       </c>
@@ -44904,7 +46722,11 @@
       </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr"/>
-      <c r="L1230" t="inlineStr"/>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1230" t="n">
         <v>1</v>
       </c>
@@ -44939,7 +46761,11 @@
       </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr"/>
-      <c r="L1231" t="inlineStr"/>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1231" t="n">
         <v>1</v>
       </c>
@@ -44974,7 +46800,11 @@
       </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr"/>
-      <c r="L1232" t="inlineStr"/>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1232" t="n">
         <v>1</v>
       </c>
@@ -45009,7 +46839,11 @@
       </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr"/>
-      <c r="L1233" t="inlineStr"/>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1233" t="n">
         <v>1</v>
       </c>
@@ -45044,7 +46878,11 @@
       </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr"/>
-      <c r="L1234" t="inlineStr"/>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1234" t="n">
         <v>1</v>
       </c>
@@ -45079,7 +46917,11 @@
       </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr"/>
-      <c r="L1235" t="inlineStr"/>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1235" t="n">
         <v>1</v>
       </c>
@@ -45114,7 +46956,11 @@
       </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr"/>
-      <c r="L1236" t="inlineStr"/>
+      <c r="L1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1236" t="n">
         <v>1</v>
       </c>
@@ -45149,7 +46995,11 @@
       </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr"/>
-      <c r="L1237" t="inlineStr"/>
+      <c r="L1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1237" t="n">
         <v>1</v>
       </c>
@@ -45184,7 +47034,11 @@
       </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr"/>
-      <c r="L1238" t="inlineStr"/>
+      <c r="L1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1238" t="n">
         <v>1</v>
       </c>
@@ -45219,7 +47073,11 @@
       </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr"/>
-      <c r="L1239" t="inlineStr"/>
+      <c r="L1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1239" t="n">
         <v>1</v>
       </c>
@@ -45254,7 +47112,11 @@
       </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr"/>
-      <c r="L1240" t="inlineStr"/>
+      <c r="L1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1240" t="n">
         <v>1</v>
       </c>
@@ -45289,7 +47151,11 @@
       </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr"/>
-      <c r="L1241" t="inlineStr"/>
+      <c r="L1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1241" t="n">
         <v>1</v>
       </c>
@@ -45324,7 +47190,11 @@
       </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr"/>
-      <c r="L1242" t="inlineStr"/>
+      <c r="L1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1242" t="n">
         <v>1</v>
       </c>
@@ -45359,7 +47229,11 @@
       </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr"/>
-      <c r="L1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1243" t="n">
         <v>1</v>
       </c>
@@ -45394,7 +47268,11 @@
       </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr"/>
-      <c r="L1244" t="inlineStr"/>
+      <c r="L1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1244" t="n">
         <v>1</v>
       </c>
@@ -45429,7 +47307,11 @@
       </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr"/>
-      <c r="L1245" t="inlineStr"/>
+      <c r="L1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1245" t="n">
         <v>1</v>
       </c>
@@ -45464,7 +47346,11 @@
       </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr"/>
-      <c r="L1246" t="inlineStr"/>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1246" t="n">
         <v>1</v>
       </c>
@@ -45499,7 +47385,11 @@
       </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr"/>
-      <c r="L1247" t="inlineStr"/>
+      <c r="L1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1247" t="n">
         <v>1</v>
       </c>
@@ -45534,7 +47424,11 @@
       </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr"/>
-      <c r="L1248" t="inlineStr"/>
+      <c r="L1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1248" t="n">
         <v>1</v>
       </c>
@@ -45569,7 +47463,11 @@
       </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr"/>
-      <c r="L1249" t="inlineStr"/>
+      <c r="L1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1249" t="n">
         <v>1</v>
       </c>
@@ -45604,7 +47502,11 @@
       </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr"/>
-      <c r="L1250" t="inlineStr"/>
+      <c r="L1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1250" t="n">
         <v>1</v>
       </c>
@@ -45639,7 +47541,11 @@
       </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr"/>
-      <c r="L1251" t="inlineStr"/>
+      <c r="L1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1251" t="n">
         <v>1</v>
       </c>
@@ -45674,7 +47580,11 @@
       </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr"/>
-      <c r="L1252" t="inlineStr"/>
+      <c r="L1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1252" t="n">
         <v>1</v>
       </c>
@@ -45709,7 +47619,11 @@
       </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr"/>
-      <c r="L1253" t="inlineStr"/>
+      <c r="L1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1253" t="n">
         <v>1</v>
       </c>
@@ -45744,7 +47658,11 @@
       </c>
       <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr"/>
-      <c r="L1254" t="inlineStr"/>
+      <c r="L1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1254" t="n">
         <v>1</v>
       </c>
@@ -45779,7 +47697,11 @@
       </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr"/>
-      <c r="L1255" t="inlineStr"/>
+      <c r="L1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1255" t="n">
         <v>1</v>
       </c>
@@ -45814,7 +47736,11 @@
       </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr"/>
-      <c r="L1256" t="inlineStr"/>
+      <c r="L1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1256" t="n">
         <v>1</v>
       </c>
@@ -45849,7 +47775,11 @@
       </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr"/>
-      <c r="L1257" t="inlineStr"/>
+      <c r="L1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1257" t="n">
         <v>1</v>
       </c>
@@ -45884,7 +47814,11 @@
       </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr"/>
-      <c r="L1258" t="inlineStr"/>
+      <c r="L1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1258" t="n">
         <v>1</v>
       </c>
@@ -45919,7 +47853,11 @@
       </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr"/>
-      <c r="L1259" t="inlineStr"/>
+      <c r="L1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1259" t="n">
         <v>1</v>
       </c>
@@ -45954,7 +47892,11 @@
       </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr"/>
-      <c r="L1260" t="inlineStr"/>
+      <c r="L1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1260" t="n">
         <v>1</v>
       </c>
@@ -45989,7 +47931,11 @@
       </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr"/>
-      <c r="L1261" t="inlineStr"/>
+      <c r="L1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1261" t="n">
         <v>1</v>
       </c>
@@ -46024,7 +47970,11 @@
       </c>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr"/>
-      <c r="L1262" t="inlineStr"/>
+      <c r="L1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1262" t="n">
         <v>1</v>
       </c>
@@ -46059,7 +48009,11 @@
       </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr"/>
-      <c r="L1263" t="inlineStr"/>
+      <c r="L1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1263" t="n">
         <v>1</v>
       </c>
